--- a/Unit expression.xlsx
+++ b/Unit expression.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\Documents\2023\프로젝트 기획 및 진행\02_소재연구데이터 표준화전문위원회\표준안 취합\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA39BA-BF59-4150-B1F0-1320A640015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="120" yWindow="195" windowWidth="24930" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
   <si>
     <t>사용 unit 일람표</t>
   </si>
@@ -409,9 +418,6 @@
     <t>degree</t>
   </si>
   <si>
-    <t>geometic angle</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -443,47 +449,78 @@
   </si>
   <si>
     <t>The seven base units and the 22 derived units with special names and symbols may be used in combination to express other derived units, which are adopted to facilitate measurement of diverse quantities.</t>
+  </si>
+  <si>
+    <t>pC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>pico Coulomb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>geometric angle</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font/>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -491,7 +528,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -513,33 +550,28 @@
     </fill>
   </fills>
   <borders count="15">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -549,6 +581,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -560,6 +593,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -568,6 +605,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -576,167 +618,228 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5762625" cy="1038225"/>
+    <xdr:ext cx="4486275" cy="742950"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="그림"/>
+        <xdr:cNvPr id="2" name="Shape 2" title="그림">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="9448801" cy="1683990"/>
+          <a:off x="11868150" y="5705476"/>
+          <a:ext cx="4486275" cy="742950"/>
           <a:chOff x="152400" y="152400"/>
           <a:chExt cx="9448801" cy="1683990"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPr id="3" name="Shape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -770,11 +873,17 @@
     <xdr:ext cx="7010400" cy="5867400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
+        <xdr:cNvPr id="4" name="image1.png" title="이미지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -792,7 +901,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -982,861 +1091,870 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.38"/>
-    <col customWidth="1" min="4" max="4" width="15.0"/>
-    <col customWidth="1" min="5" max="5" width="12.88"/>
-    <col customWidth="1" min="6" max="6" width="17.25"/>
-    <col customWidth="1" min="8" max="8" width="21.5"/>
-    <col customWidth="1" min="10" max="10" width="20.88"/>
-    <col customWidth="1" min="14" max="14" width="13.63"/>
-    <col customWidth="1" min="16" max="16" width="17.88"/>
-    <col customWidth="1" min="18" max="18" width="19.0"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="25"/>
+      <c r="M4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3" t="s">
+      <c r="N4" s="25"/>
+      <c r="O4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="3" t="s">
+      <c r="P4" s="25"/>
+      <c r="Q4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="5" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="5" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="5" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="8" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="5" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="5" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="R10" s="27"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="8" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="5" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="R11" s="27"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="8" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="5" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="5" t="s">
+      <c r="R12" s="28"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="5" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="5" t="s">
+    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="5" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="5" t="s">
+    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="5" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="5" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R17" s="5" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="10" t="s">
+      <c r="R18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="R18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="10" t="s">
+      <c r="R19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="R19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="10" t="s">
+      <c r="R20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="R20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="18" t="s">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="19"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="20" t="s">
+      <c r="M31" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="23"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="20" t="s">
+      <c r="M32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="26"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="26"/>
-    </row>
-    <row r="34">
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="26"/>
-    </row>
-    <row r="35">
-      <c r="M35" s="24"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="26"/>
-    </row>
-    <row r="36">
-      <c r="M36" s="27"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="29"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M35" s="16"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="18"/>
+    </row>
+    <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M36" s="19"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1851,6 +1969,9 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>